--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_27.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_27.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1274,39 +1274,6 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
